--- a/file/Book1.xlsx
+++ b/file/Book1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\140-434\P\smsServiceAPI\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\140-434\ProjectSMS\smsServiceAPI\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,9 +45,6 @@
     <t>Chinnawong</t>
   </si>
   <si>
-    <t>Hi Hi</t>
-  </si>
-  <si>
     <t>Suphachok</t>
   </si>
   <si>
@@ -79,13 +76,16 @@
   </si>
   <si>
     <t>eiei eiei</t>
+  </si>
+  <si>
+    <t>Hi Hi จิรายุ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,12 +95,19 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="0"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
-      <color theme="0"/>
       <name val="TH Sarabun New"/>
       <family val="2"/>
     </font>
@@ -137,16 +144,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,99 +607,100 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.09765625" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="33.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.09765625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>66950193878</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="4">
+        <v>66887575475</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" s="2">
-        <v>66887575475</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>66924589460</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>66924589460</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4">
+        <v>66827303767</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="2">
-        <v>66827303767</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="24.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="3">
+        <v>66897382470</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="1">
-        <v>66897382470</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
